--- a/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__C_Stationarygenerator_alpha_zero.xlsx
@@ -60,22 +60,22 @@
     <t>-1 + x</t>
   </si>
   <si>
-    <t>-0.4506741868524874</t>
+    <t>3.3000000000000007</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.1869798624383242</t>
+    <t>0.75</t>
   </si>
   <si>
     <t>-1 - x</t>
   </si>
   <si>
-    <t>-1.5493258131475125</t>
-  </si>
-  <si>
-    <t>0.3307618713826723</t>
+    <t>-5.300000000000001</t>
+  </si>
+  <si>
+    <t>0.49</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -90,37 +90,37 @@
     <t>-1 + y</t>
   </si>
   <si>
-    <t>-0.20644090786345548</t>
+    <t>2.55</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4716596798672763</t>
-  </si>
-  <si>
-    <t>0.24284065935533405</t>
-  </si>
-  <si>
-    <t>0.7868907310280077</t>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.027150510402551564</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>-1 - y</t>
   </si>
   <si>
-    <t>-1.7935590921365445</t>
+    <t>-4.55</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9232357192894672</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.2940421676375965</t>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>1.7036293653534984</t>
+  </si>
+  <si>
+    <t>1.5106827443380266</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.5493258131475126</t>
-  </si>
-  <si>
-    <t>0.7935590921365445</t>
+    <t>4.300000000000001</t>
+  </si>
+  <si>
+    <t>3.55</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.3711658198571268</t>
+    <t>-8.382499999999999</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.4548696173506771</t>
-  </si>
-  <si>
-    <t>-1.829958843628423</t>
+    <t>-8.360000000000001</t>
+  </si>
+  <si>
+    <t>-5.423521145049053</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__C_Stationarygenerator_alpha_zero.xlsx
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>3.3000000000000007</t>
+    <t>-2.1 + x</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-5.300000000000001</t>
-  </si>
-  <si>
-    <t>0.49</t>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>2.1 - x</t>
+  </si>
+  <si>
+    <t>-3.1</t>
+  </si>
+  <si>
+    <t>0.27</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + y</t>
-  </si>
-  <si>
-    <t>2.55</t>
+    <t>-3.3000000000000003 + y</t>
+  </si>
+  <si>
+    <t>2.3000000000000003</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.027150510402551564</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-1 - y</t>
-  </si>
-  <si>
-    <t>-4.55</t>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>-3.5</t>
+  </si>
+  <si>
+    <t>-6.0</t>
+  </si>
+  <si>
+    <t>3.3000000000000007 - y</t>
+  </si>
+  <si>
+    <t>-4.300000000000001</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>1.7036293653534984</t>
-  </si>
-  <si>
-    <t>1.5106827443380266</t>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>-4.9</t>
+  </si>
+  <si>
+    <t>-6.800000000000001</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>4.300000000000001</t>
-  </si>
-  <si>
-    <t>3.55</t>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-8.382499999999999</t>
+    <t>-8.350000000000003</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-8.360000000000001</t>
-  </si>
-  <si>
-    <t>-5.423521145049053</t>
+    <t>-4.17</t>
+  </si>
+  <si>
+    <t>-8.0</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__C_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-2.1 + x</t>
-  </si>
-  <si>
-    <t>1.1</t>
+    <t>-0.9 + x</t>
+  </si>
+  <si>
+    <t>-0.09999999999999998</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>2.1 - x</t>
-  </si>
-  <si>
-    <t>-3.1</t>
-  </si>
-  <si>
-    <t>0.27</t>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.8999999999999999 - x</t>
+  </si>
+  <si>
+    <t>-1.9</t>
+  </si>
+  <si>
+    <t>0.02</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,31 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-3.3000000000000003 + y</t>
-  </si>
-  <si>
-    <t>2.3000000000000003</t>
+    <t>-2.7 + y</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>-3.5</t>
-  </si>
-  <si>
-    <t>-6.0</t>
-  </si>
-  <si>
-    <t>3.3000000000000007 - y</t>
-  </si>
-  <si>
-    <t>-4.300000000000001</t>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.7 - y</t>
+  </si>
+  <si>
+    <t>-3.7</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>-4.9</t>
-  </si>
-  <si>
-    <t>-6.800000000000001</t>
+    <t>0.52</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +120,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.3000000000000003</t>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>2.7</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-8.350000000000003</t>
+    <t>-6.16</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-4.17</t>
-  </si>
-  <si>
-    <t>-8.0</t>
+    <t>-1.7</t>
+  </si>
+  <si>
+    <t>-5.4</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -629,27 +620,27 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +658,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +687,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +710,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +738,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
